--- a/Datos/Auxi/Para graf.xlsx
+++ b/Datos/Auxi/Para graf.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\ITAM\Tesis\Git\DesmantelamientoTrataChiapas\Datos\Auxi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC1160A-29BF-4C01-9AB1-60D38BA11322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848DED60-FFED-4113-BD9E-8C39454F0902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{F9246C61-ABD1-4A6E-B266-9E03514583B0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F9246C61-ABD1-4A6E-B266-9E03514583B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Aleatorio" sheetId="1" r:id="rId1"/>
     <sheet name="Hubs" sheetId="2" r:id="rId2"/>
     <sheet name="GND" sheetId="3" r:id="rId3"/>
     <sheet name="Merge" sheetId="4" r:id="rId4"/>
+    <sheet name="Densidad" sheetId="5" r:id="rId5"/>
+    <sheet name="Intermediacion" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="6">
   <si>
     <t>Costo</t>
   </si>
@@ -99,9 +101,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF3D524C"/>
+      <color rgb="FF328573"/>
       <color rgb="FF75B8C8"/>
-      <color rgb="FF328573"/>
-      <color rgb="FF3D524C"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1786,7 +1788,7 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="3D524C"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2053,7 +2055,7 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:srgbClr val="328573"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2320,7 +2322,7 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:srgbClr val="75B8C8"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2857,6 +2859,2126 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Densidad!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aleatorio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="3D524C"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="3D524C"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="3D524C"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Densidad!$A$2:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Densidad!$B$2:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0.40909090909090901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41935483870967699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41935483870967699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39310344827586202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.40886699507389102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.41798941798941702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41310541310541299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39692307692307599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.40333333333333299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.40217391304347799</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38339920948616601</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.40259740259740201</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.43809523809523798</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.42631578947368398</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.38011695906432702</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36601307189542398</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35294117647058798</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.33333333333333298</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.31868131868131799</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.32051282051281998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.37878787878787801</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.34545454545454501</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.33333333333333298</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.33333333333333298</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.35714285714285698</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.38095238095237999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.33333333333333298</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.33333333333333298</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4369-4C68-B868-89EBA200D4F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Densidad!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hubs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="328573"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="328573"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="328573"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Densidad!$D$2:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Densidad!$E$2:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34677419354838701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.331182795698924</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31724137931034402</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30295566502463001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28835978835978798</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27920227920227902</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26769230769230701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25333333333333302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23913043478260801</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.23715415019762801</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.229437229437229</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.22380952380952299</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.221052631578947</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.22807017543859601</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.24183006535947699</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.26470588235294101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.29523809523809502</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.28571428571428498</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.32051282051281998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.28787878787878701</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.25454545454545402</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.31111111111111101</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.33333333333333298</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.32142857142857101</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.33333333333333298</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.46666666666666601</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.66666666666666596</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.66666666666666596</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4369-4C68-B868-89EBA200D4F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Densidad!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GND</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="75B8C8"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="75B8C8"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="75B8C8"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Densidad!$G$2:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Densidad!$H$2:$H$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>0.41856060606060602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42943548387096703</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43010752688171999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42758620689655102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42118226600985198</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39417989417989402</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.361823361823361</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.366153846153846</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36666666666666597</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36231884057970998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.34782608695652101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.32900432900432902</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.30952380952380898</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.31578947368421001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.31578947368421001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.30065359477124098</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.28676470588235198</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.27500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.266666666666666</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.26373626373626302</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.269230769230769</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.28787878787878701</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.27272727272727199</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.266666666666666</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.22222222222222199</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.17857142857142799</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.14285714285714199</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.133333333333333</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4369-4C68-B868-89EBA200D4F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1810264431"/>
+        <c:axId val="1533685231"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1810264431"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" sz="1100"/>
+                  <a:t>Tamaño del componente mayor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1533685231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1533685231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" sz="1100"/>
+                  <a:t>Densidad</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1810264431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Intermediacion!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Aleatorio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="3D524C"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="3D524C"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="3D524C"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Intermediacion!$A$2:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Intermediacion!$B$2:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>2.07722385141739E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4059139784946199E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4842417500926899E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6190476190476101E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7093596059113299E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8083028083028001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9287749287749201E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.02564102564102E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1739130434782603E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4090909090908998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.7267080745341602E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9826839826839801E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.2606516290726801E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5614035087719197E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.2655658754729903E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.4934640522875803E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.9999999999999899E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.3571428571428499E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.0805860805860798E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.5018315018314995E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.8764568764568698E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.7272727272727201E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.2929292929292903E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.102777777777777</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.123015873015873</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.15476190476190399</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.18095238095238</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.233333333333333</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.266666666666666</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C19-415B-A0E8-608A2A50D179}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Intermediacion!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hubs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="328573"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="328573"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="328573"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Intermediacion!$D$2:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Intermediacion!$E$2:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>3.0107526881720401E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2109751575824901E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4400656814449898E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.77668308702791E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1717541717541697E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4444444444444398E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7692307692307603E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9420289855072403E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.8181818181818094E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.8674948240165604E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.10021645021645</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.105513784461152</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.2982456140350803E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0567595459236302E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.0049019607843097E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.2058823529411703E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.7499999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.6703296703296707E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.4322344322344306E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.9743589743589702E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.101515151515151</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.115151515151515</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.15833333333333299</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.17857142857142799</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.3809523809523801E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.8571428571428501E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.16666666666666599</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.33333333333333298</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3C19-415B-A0E8-608A2A50D179}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Intermediacion!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GND</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="75B8C8"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="75B8C8"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="75B8C8"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Intermediacion!$G$2:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Intermediacion!$H$2:$H$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>2.0588954056695901E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7338709677419298E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7871709306637E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.85550082101806E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0343003101623701E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.26902726902726E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0284900284900199E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.11538461538461E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.28985507246376E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5527009222661299E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1055900621118002E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5714285714285698E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0075187969924801E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.04678362573099E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.37598899208806E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.63398692810457E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9607843137254802E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3809523809523799E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.93040293040293E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.66300366300366E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.6620046620046603E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.0606060606060597E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0404040404040404E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3C19-415B-A0E8-608A2A50D179}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1810264431"/>
+        <c:axId val="1533685231"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1810264431"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" sz="1100"/>
+                  <a:t>Tamaño del componente mayor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1533685231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1533685231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX" sz="1100"/>
+                  <a:t>Grado de intermediación</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1810264431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3014,6 +5136,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4563,6 +6765,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5228,6 +8462,90 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>583406</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>168276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>583406</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>173038</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6B1EB7B-2181-467E-A25D-9E5A180C4359}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38203</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>72064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>38203</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76826</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59F96331-F6C3-43EE-AA2A-C5E6BE56FFE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5543,7 +8861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D37168-C7B4-41E7-810F-D34700133A26}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -6429,7 +9747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EEFF0BB-F9BE-46DD-906B-4D3951444876}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="92" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
@@ -7133,4 +10451,1354 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C598A4AA-C212-49FC-901F-2870BCF96306}">
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" zoomScale="99" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>0.40909090909090901</v>
+      </c>
+      <c r="D2">
+        <v>33</v>
+      </c>
+      <c r="E2">
+        <v>0.375</v>
+      </c>
+      <c r="G2">
+        <v>33</v>
+      </c>
+      <c r="H2">
+        <v>0.41856060606060602</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>0.41935483870967699</v>
+      </c>
+      <c r="D3">
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>0.34677419354838701</v>
+      </c>
+      <c r="G3">
+        <v>31</v>
+      </c>
+      <c r="H3">
+        <v>0.42943548387096703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>0.41935483870967699</v>
+      </c>
+      <c r="D4">
+        <v>31</v>
+      </c>
+      <c r="E4">
+        <v>0.331182795698924</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>0.43010752688171999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>0.39310344827586202</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>0.31724137931034402</v>
+      </c>
+      <c r="G5">
+        <v>29</v>
+      </c>
+      <c r="H5">
+        <v>0.42758620689655102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>0.40886699507389102</v>
+      </c>
+      <c r="D6">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>0.30295566502463001</v>
+      </c>
+      <c r="G6">
+        <v>28</v>
+      </c>
+      <c r="H6">
+        <v>0.42118226600985198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>0.41798941798941702</v>
+      </c>
+      <c r="D7">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>0.28835978835978798</v>
+      </c>
+      <c r="G7">
+        <v>27</v>
+      </c>
+      <c r="H7">
+        <v>0.39417989417989402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>0.41310541310541299</v>
+      </c>
+      <c r="D8">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>0.27920227920227902</v>
+      </c>
+      <c r="G8">
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <v>0.361823361823361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>0.39692307692307599</v>
+      </c>
+      <c r="D9">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>0.26769230769230701</v>
+      </c>
+      <c r="G9">
+        <v>23</v>
+      </c>
+      <c r="H9">
+        <v>0.366153846153846</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>0.40333333333333299</v>
+      </c>
+      <c r="D10">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>0.25333333333333302</v>
+      </c>
+      <c r="G10">
+        <v>22</v>
+      </c>
+      <c r="H10">
+        <v>0.36666666666666597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>0.40217391304347799</v>
+      </c>
+      <c r="D11">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>0.23913043478260801</v>
+      </c>
+      <c r="G11">
+        <v>21</v>
+      </c>
+      <c r="H11">
+        <v>0.36231884057970998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>0.38339920948616601</v>
+      </c>
+      <c r="D12">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>0.23715415019762801</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <v>0.34782608695652101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>0.40259740259740201</v>
+      </c>
+      <c r="D13">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>0.229437229437229</v>
+      </c>
+      <c r="G13">
+        <v>19</v>
+      </c>
+      <c r="H13">
+        <v>0.32900432900432902</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>0.43809523809523798</v>
+      </c>
+      <c r="D14">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>0.22380952380952299</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>0.30952380952380898</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>0.42631578947368398</v>
+      </c>
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>0.221052631578947</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>0.31578947368421001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>0.38011695906432702</v>
+      </c>
+      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>0.22807017543859601</v>
+      </c>
+      <c r="G16">
+        <v>9</v>
+      </c>
+      <c r="H16">
+        <v>0.31578947368421001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0.36601307189542398</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>0.24183006535947699</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="H17">
+        <v>0.30065359477124098</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.35294117647058798</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>0.26470588235294101</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <v>0.28676470588235198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>0.35</v>
+      </c>
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>0.3</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>0.29523809523809502</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20">
+        <v>0.266666666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>0.31868131868131799</v>
+      </c>
+      <c r="D21">
+        <v>13</v>
+      </c>
+      <c r="E21">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <v>0.26373626373626302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>0.32051282051281998</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>0.32051282051281998</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+      <c r="H22">
+        <v>0.269230769230769</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>0.37878787878787801</v>
+      </c>
+      <c r="D23">
+        <v>11</v>
+      </c>
+      <c r="E23">
+        <v>0.28787878787878701</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <v>0.28787878787878701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>0.34545454545454501</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>0.25454545454545402</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>0.27272727272727199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>0.31111111111111101</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>0.266666666666666</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>0.22222222222222199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>0.35714285714285698</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>0.32142857142857101</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>0.17857142857142799</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>0.38095238095237999</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>0.14285714285714199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>0.4</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>0.46666666666666601</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>0.133333333333333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>0.3</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>0.7</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDA4C00-B5FD-4E5C-9D28-BB2CC20E417A}">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" zoomScale="99" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>2.07722385141739E-2</v>
+      </c>
+      <c r="D2">
+        <v>32</v>
+      </c>
+      <c r="E2">
+        <v>3.0107526881720401E-2</v>
+      </c>
+      <c r="G2">
+        <v>33</v>
+      </c>
+      <c r="H2">
+        <v>2.0588954056695901E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>2.4059139784946199E-2</v>
+      </c>
+      <c r="D3">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>3.2109751575824901E-2</v>
+      </c>
+      <c r="G3">
+        <v>31</v>
+      </c>
+      <c r="H3">
+        <v>1.7338709677419298E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>2.4842417500926899E-2</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>3.4400656814449898E-2</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4">
+        <v>1.7871709306637E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>2.6190476190476101E-2</v>
+      </c>
+      <c r="D5">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>3.77668308702791E-2</v>
+      </c>
+      <c r="G5">
+        <v>29</v>
+      </c>
+      <c r="H5">
+        <v>1.85550082101806E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>2.7093596059113299E-2</v>
+      </c>
+      <c r="D6">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>4.1717541717541697E-2</v>
+      </c>
+      <c r="G6">
+        <v>28</v>
+      </c>
+      <c r="H6">
+        <v>2.0343003101623701E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>2.8083028083028001E-2</v>
+      </c>
+      <c r="D7">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>4.4444444444444398E-2</v>
+      </c>
+      <c r="G7">
+        <v>27</v>
+      </c>
+      <c r="H7">
+        <v>2.26902726902726E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>2.9287749287749201E-2</v>
+      </c>
+      <c r="D8">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>4.7692307692307603E-2</v>
+      </c>
+      <c r="G8">
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <v>2.0284900284900199E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>3.02564102564102E-2</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>5.9420289855072403E-2</v>
+      </c>
+      <c r="G9">
+        <v>23</v>
+      </c>
+      <c r="H9">
+        <v>2.11538461538461E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>3.1739130434782603E-2</v>
+      </c>
+      <c r="D10">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>6.8181818181818094E-2</v>
+      </c>
+      <c r="G10">
+        <v>22</v>
+      </c>
+      <c r="H10">
+        <v>2.28985507246376E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>3.4090909090908998E-2</v>
+      </c>
+      <c r="D11">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>7.8674948240165604E-2</v>
+      </c>
+      <c r="G11">
+        <v>21</v>
+      </c>
+      <c r="H11">
+        <v>2.5527009222661299E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>3.7267080745341602E-2</v>
+      </c>
+      <c r="D12">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>0.10021645021645</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <v>3.1055900621118002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>3.9826839826839801E-2</v>
+      </c>
+      <c r="D13">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>0.105513784461152</v>
+      </c>
+      <c r="G13">
+        <v>19</v>
+      </c>
+      <c r="H13">
+        <v>3.5714285714285698E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>4.2606516290726801E-2</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>4.2982456140350803E-2</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>3.0075187969924801E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>4.5614035087719197E-2</v>
+      </c>
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>5.0567595459236302E-2</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>2.04678362573099E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>4.2655658754729903E-2</v>
+      </c>
+      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>6.0049019607843097E-2</v>
+      </c>
+      <c r="G16">
+        <v>9</v>
+      </c>
+      <c r="H16">
+        <v>1.37598899208806E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>4.4934640522875803E-2</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>7.2058823529411703E-2</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="H17">
+        <v>1.63398692810457E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>4.9999999999999899E-2</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <v>1.9607843137254802E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>5.3571428571428499E-2</v>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>9.6703296703296707E-2</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>2.3809523809523799E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>6.0805860805860798E-2</v>
+      </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>9.4322344322344306E-2</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20">
+        <v>2.93040293040293E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>6.5018315018314995E-2</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>8.9743589743589702E-2</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <v>3.66300366300366E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>6.8764568764568698E-2</v>
+      </c>
+      <c r="D22">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>0.101515151515151</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+      <c r="H22">
+        <v>4.6620046620046603E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>7.7272727272727201E-2</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>0.115151515151515</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <v>6.0606060606060597E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>9.2929292929292903E-2</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>0.15833333333333299</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>4.0404040404040404E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>0.102777777777777</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>0.17857142857142799</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>0.123015873015873</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>2.3809523809523801E-2</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>0.15476190476190399</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>2.8571428571428501E-2</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>0.18095238095238</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>0.05</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>0.233333333333333</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>9.9999999999999895E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>0.266666666666666</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>0.16666666666666599</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>